--- a/files/Excel/進度甘特圖.xlsx
+++ b/files/Excel/進度甘特圖.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10646016\大三\專題\camping-文件\複評文件\files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10646016\大三\專題\camping-docs\files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680D47EB-0DC6-4B72-B840-1498FEAC88A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57F396E-D4C4-455E-A4C6-000E997AF809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,9 +654,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,9 +663,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,9 +690,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,18 +702,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,6 +768,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,46 +828,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EJ76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1173,678 +1161,678 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="52">
+      <c r="A1" s="17"/>
+      <c r="B1" s="61">
         <v>2020</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="54"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="63"/>
     </row>
     <row r="2" spans="1:140" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50" t="s">
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50" t="s">
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50" t="s">
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50" t="s">
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50" t="s">
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50" t="s">
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50" t="s">
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="51"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="60"/>
     </row>
     <row r="3" spans="1:140" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="8"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="7"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="8"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="7"/>
       <c r="X3" s="6"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="8"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="7"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="8"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="7"/>
       <c r="AD3" s="6"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="8"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="7"/>
       <c r="AG3" s="6"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="7"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="44"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:140" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="26"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="65"/>
     </row>
     <row r="5" spans="1:140" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="8"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="7"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="29"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="44"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="26"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="65"/>
     </row>
     <row r="7" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="8"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="7"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="8"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="7"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="8"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="7"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="8"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="7"/>
       <c r="AA7" s="6"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="8"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="7"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="8"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="7"/>
       <c r="AG7" s="6"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="29"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="44"/>
     </row>
     <row r="8" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="26"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="65"/>
     </row>
     <row r="9" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="69"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="8"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="7"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="8"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="7"/>
       <c r="X9" s="6"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="8"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="7"/>
       <c r="AA9" s="6"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="8"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="7"/>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="8"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="7"/>
       <c r="AG9" s="6"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="29"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="44"/>
     </row>
     <row r="10" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="26"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="65"/>
     </row>
     <row r="11" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="8"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="7"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="8"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="7"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="8"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="7"/>
       <c r="AA11" s="6"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="8"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="7"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="8"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="7"/>
       <c r="AG11" s="6"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="29"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="44"/>
     </row>
     <row r="12" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="26"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="65"/>
     </row>
     <row r="13" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="8"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="7"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="8"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="7"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="8"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="7"/>
       <c r="AA13" s="6"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="8"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="7"/>
       <c r="AD13" s="6"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="8"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="7"/>
       <c r="AG13" s="6"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="49"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="44"/>
     </row>
     <row r="14" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="26"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="65"/>
     </row>
     <row r="15" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="8"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="7"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="8"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="7"/>
       <c r="X15" s="6"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="29"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="47"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="44"/>
     </row>
     <row r="16" spans="1:140" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="26"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="65"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
@@ -1950,45 +1938,45 @@
       <c r="EJ16" s="1"/>
     </row>
     <row r="17" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="8"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="7"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="8"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="7"/>
       <c r="X17" s="6"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="8"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="7"/>
       <c r="AA17" s="6"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="8"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="7"/>
       <c r="AD17" s="6"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="8"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="7"/>
       <c r="AG17" s="6"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="29"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="44"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
@@ -2094,43 +2082,43 @@
       <c r="EJ17" s="1"/>
     </row>
     <row r="18" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="25"/>
-      <c r="AK18" s="26"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="65"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
@@ -2138,45 +2126,45 @@
       <c r="AP18" s="1"/>
     </row>
     <row r="19" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="44"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="11"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="29"/>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
@@ -2184,43 +2172,43 @@
       <c r="AP19" s="1"/>
     </row>
     <row r="20" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="26"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="65"/>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
@@ -2228,45 +2216,45 @@
       <c r="AP20" s="1"/>
     </row>
     <row r="21" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="43"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="43"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="43"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="34"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="29"/>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
@@ -2274,43 +2262,43 @@
       <c r="AP21" s="1"/>
     </row>
     <row r="22" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="26"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="42"/>
+      <c r="AK22" s="65"/>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
@@ -2318,45 +2306,45 @@
       <c r="AP22" s="1"/>
     </row>
     <row r="23" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="43"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="34"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="29"/>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
@@ -2364,43 +2352,43 @@
       <c r="AP23" s="1"/>
     </row>
     <row r="24" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="26"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="33"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="65"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
@@ -2408,45 +2396,45 @@
       <c r="AP24" s="1"/>
     </row>
     <row r="25" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="12"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="21"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="29"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
@@ -2454,43 +2442,43 @@
       <c r="AP25" s="1"/>
     </row>
     <row r="26" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="38"/>
-      <c r="AI26" s="24"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="26"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="33"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="65"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
@@ -2498,45 +2486,45 @@
       <c r="AP26" s="1"/>
     </row>
     <row r="27" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="43"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="11"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="29"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
@@ -2544,43 +2532,43 @@
       <c r="AP27" s="1"/>
     </row>
     <row r="28" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="38"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="38"/>
-      <c r="AI28" s="24"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="26"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="33"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="65"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
@@ -2588,45 +2576,45 @@
       <c r="AP28" s="1"/>
     </row>
     <row r="29" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="43"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="43"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="41"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="11"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="30"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="29"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
@@ -2634,43 +2622,43 @@
       <c r="AP29" s="1"/>
     </row>
     <row r="30" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="40"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="38"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="25"/>
-      <c r="AH30" s="40"/>
-      <c r="AI30" s="24"/>
-      <c r="AJ30" s="25"/>
-      <c r="AK30" s="26"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="33"/>
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="35"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="65"/>
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
@@ -2678,45 +2666,45 @@
       <c r="AP30" s="1"/>
     </row>
     <row r="31" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="43"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="43"/>
-      <c r="AI31" s="12"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="21"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="30"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="29"/>
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
@@ -2724,43 +2712,43 @@
       <c r="AP31" s="1"/>
     </row>
     <row r="32" spans="1:140" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="57"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="31"/>
-      <c r="AH32" s="38"/>
-      <c r="AI32" s="16"/>
-      <c r="AJ32" s="15"/>
-      <c r="AK32" s="18"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="33"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="16"/>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
@@ -3065,21 +3053,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="B1:AK1"/>
@@ -3093,6 +3066,21 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
